--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11930.98573899862</v>
+        <v>2374266.162060725</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11930.98573899862</v>
+        <v>2374266.162060725</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38817.77697836839</v>
+        <v>2351650.192921046</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38817.77697836839</v>
+        <v>2351650.192921046</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342799231.934366</v>
+        <v>53755872.35064231</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12812.89411807359</v>
+        <v>1324029.274807443</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24330.60875057657</v>
+        <v>2425984.185098463</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35848.32338307953</v>
+        <v>3527939.095389485</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48587.91097042416</v>
+        <v>4563687.042726318</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61327.49855776875</v>
+        <v>5599434.990063151</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74067.08614511337</v>
+        <v>6635182.937399982</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86806.67373245796</v>
+        <v>7670930.884736808</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99546.26131980262</v>
+        <v>8706678.832073634</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112127.2735365939</v>
+        <v>9712982.02003788</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124712.4115178083</v>
+        <v>10751038.38103255</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137284.1954541882</v>
+        <v>11786447.1977848</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149856.0291929784</v>
+        <v>12821856.01453706</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162427.8629317686</v>
+        <v>13857264.83128932</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>174999.6966705588</v>
+        <v>14892673.64804158</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187694.3492913903</v>
+        <v>15914972.41580382</v>
       </c>
     </row>
   </sheetData>
